--- a/TestDaten/Winken.xlsx
+++ b/TestDaten/Winken.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Winken" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>HandRight.X</t>
   </si>
@@ -42,12 +42,18 @@
   <si>
     <t>Head.Z</t>
   </si>
+  <si>
+    <t>V HR</t>
+  </si>
+  <si>
+    <t>Media HR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,48 +536,48 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,24 +591,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-CH"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -625,7 +619,7 @@
             <c:numRef>
               <c:f>Winken!$A$2:$A$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>0.23958679999999999</c:v>
@@ -1530,7 +1524,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1554,7 +1547,7 @@
             <c:numRef>
               <c:f>Winken!$D$2:$D$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>0.1848332</c:v>
@@ -2459,7 +2452,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2483,7 +2475,7 @@
             <c:numRef>
               <c:f>Winken!$G$2:$G$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>-0.14646919999999999</c:v>
@@ -3388,51 +3380,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="58071296"/>
-        <c:axId val="58109952"/>
+        <c:axId val="131926272"/>
+        <c:axId val="131932160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58071296"/>
+        <c:axId val="131926272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58109952"/>
+        <c:crossAx val="131932160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58109952"/>
+        <c:axId val="131932160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58071296"/>
+        <c:crossAx val="131926272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3440,15 +3416,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3456,24 +3430,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-CH"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3496,7 +3458,7 @@
             <c:numRef>
               <c:f>Winken!$B$2:$B$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>8.2765779999999997E-2</c:v>
@@ -4401,7 +4363,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4425,7 +4386,7 @@
             <c:numRef>
               <c:f>Winken!$E$2:$E$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>-0.14049519999999999</c:v>
@@ -5330,7 +5291,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5354,7 +5314,7 @@
             <c:numRef>
               <c:f>Winken!$H$2:$H$301</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>0.1953609</c:v>
@@ -6259,51 +6219,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="128773504"/>
-        <c:axId val="128775296"/>
+        <c:axId val="131979136"/>
+        <c:axId val="131980672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128773504"/>
+        <c:axId val="131979136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128775296"/>
+        <c:crossAx val="131980672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128775296"/>
+        <c:axId val="131980672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128773504"/>
+        <c:crossAx val="131979136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6311,15 +6255,996 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Winken!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media HR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Winken!$L$2:$L$301</c:f>
+              <c:numCache>
+                <c:formatCode>Standard</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6454640398470474E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9495310430343751E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2273685189730727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27482704153478688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2273685189730727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76523242032838645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82725743034427324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82725743034427324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7002286080651841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6929220105129326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6929220105129326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6346292321734615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2825374116683694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2825374116683694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5523118823013882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1501196509470564</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1501196509470564</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1501196509470564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0965929647845627</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5439198482754901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89511630310479628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81833062481982854</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81833062481982854</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49707894985605128</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49707894985605128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7856037369995157</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8472401033845698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9757549466307356</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4181117208831977</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9876058008047943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9876058008047943</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1963418219938879</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0377891249005318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0377891249005318</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1367428461137772</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5754944827424806</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8272931954519578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0799478575909087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7639347466119604</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0799478575909087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2835074620099549</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7069016092750107</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8784074133224782</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4313981921952728</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4313981921952728</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1966707340841345</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1966707340841345</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.4580393391458584</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0351487930698677</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.678510297544141</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0351487930698677</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.678510297544141</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.77756327456729757</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.62556276015700574</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.62409108546429848</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.35972518511594093</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.62409108546429848</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.87707288322826837</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.87707288322826837</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12573025426173307</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.12573025426173307</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60594244163222211</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64612318347359221</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.60594244163222211</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64612318347359221</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76541317576352508</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.82268507930538681</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.5116654234654794</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.0967419549405637</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.5116654234654794</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6887620097755502</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.2058058750562255</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.2058058750562255</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.3393511604602835</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.3393511604602835</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24611124960524411</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.24611124960524411</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.1125557479137922</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.1125557479137922</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1125557479137922</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.2288375408638617</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.2288375408638617</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.2288375408638617</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2941054402199317</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2941054402199317</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.027565028009418</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.027565028009418</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.34670704765736665</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.774783949030259</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.80896044163170377</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.80896044163170377</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.76811518901696518</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.76811518901696518</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.44213035264586836</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8812286885479965</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8812286885479965</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8812286885479965</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6362926684215906</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.44105661731092866</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.81212046298178708</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.81212046298178708</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.92217500739723313</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.8139771685992114</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.8139771685992114</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8331564753724763</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.82940941719334216</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.47447547347044322</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.47447547347044322</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.9857294679714013</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.9857294679714013</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0334800926486218</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0334800926486218</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.9864338321769481</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.9864338321769481</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.8479211370531252</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.7493492662132917</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5131794824064961</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.5311474454526717</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5311474454526717</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5311474454526717</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2465432202644589</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2465432202644589</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1467851117451615</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2611350069540557</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2611350069540557</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2611350069540557</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.71362066372408306</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.71362066372408306</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.74560029382913295</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.87903658296526443</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.87903658296526443</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.8035632580861471</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.8035632580861471</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.3106557319098733</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.3106557319098733</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4056838446411053</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.7044408055618425</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4056838446411053</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.5146779131277397</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.1025128875165136</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.0737118398257524</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.0737118398257524</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.5683678470786127</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.5683678470786127</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.1329045263679485</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.47273652521885984</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.1329045263679485</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.47273652521885984</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.522088897351596</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.522088897351596</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.522088897351596</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.2617606904173138</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.2617606904173138</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.2617606904173138</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.0665135035938289</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0641657409332628</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.0641657409332628</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.2131786088127239</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.0028533496503038</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.2131786088127239</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.66187529575064219</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.66187529575064219</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.91930820016575721</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.2945044567513095</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.2945044567513095</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.1340283126699524</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.75535917170989486</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.75535917170989486</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.75535917170989486</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.83805055712650289</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.4615917340965772</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.4704864460263449</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.4704864460263449</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.4704864460263449</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.2120355800981151</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7028899302600282</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.63061243298637826</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.63061243298637826</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.0168508451552773</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.2206085562099753</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.0168508451552773</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.74969843512441869</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.6481119469412705</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.74969843512441869</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.9201172831600335</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.9201172831600335</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.207966223127348</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.207966223127348</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.6793359051980126</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.9045975237923911</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.5311508481071385</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.5311508481071385</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.5311508481071385</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.5192909384123896</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.5063263054556044</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8.7803768688432093</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.7803768688432093</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.4322409395772056</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.54777430327188581</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.54777430327188581</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.81035443813062358</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.4747397077389124</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.9947996288184844</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.7244910749927693</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.7244910749927693</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.4431617740167002</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.2110491864567163</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.2110491864567163</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.089681484166495</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.2523719064356964</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.2523719064356964</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.0494165115424909</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.3954820024590071</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.5321870708281666</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.2894920916787356</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.2894920916787356</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.7920838365266298</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.8743656424203876</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.7920838365266298</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.8743656424203876</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.6163763199135479</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.6163763199135479</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.6163763199135479</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.7008647395626171</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.7372692695584877</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.7372692695584877</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.7859725739936321</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.3278249103783397</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.4530565818866117</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.85488855147849185</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.85488855147849185</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.85488855147849185</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.2186102764153115</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.4316188291071081</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.2186102764153115</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.4316188291071081</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.2416318582341606</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.2416318582341606</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.2416318582341606</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.0447905763212639</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.8643968681365453</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.8643968681365453</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.87884399232457389</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.1443227768069328</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.1443227768069328</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.1443227768069328</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.9995317590688548</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.5255957808397409</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.9995317590688548</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.7392415242011774</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.7392415242011774</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.9853717264555253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.9853717264555253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.3239255229220175</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.3239255229220175</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.1371255320310212</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.40078883026153356</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.1371255320310212</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.63391748119688407</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.9882320772761932</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.2098918520863755</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.2098918520863755</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.2098918520863755</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.66674080332690122</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.1146189891134324</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.1146189891134324</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.2613386755871487</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.2613386755871487</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.7391249378842866</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.7391249378842866</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.4333287127492271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.4333287127492271</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.60040358139338257</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.60040358139338257</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.3310617734369048</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.6268656049351466</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.3310617734369048</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.14213878508345298</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.10800200902297936</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.14213878508345298</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.15028518741379862</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.24734350685231377</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.58776694251208195</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.0178858446451649</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.666939037968997</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.666939037968997</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.5412047668572826</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.5412047668572826</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.4224761040758438</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.90520066978485714</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.90520066978485714</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.90520066978485714</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.2415296635310544</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.56525706425315392</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.0291731199414391</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.12293942891521856</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.12293942891521856</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9.6771837768022687E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>8.2708351577512801E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="137630464"/>
+        <c:axId val="137659136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="137630464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137659136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137659136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="Standard" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137630464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6329,16 +7254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6359,16 +7284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6387,13 +7312,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6431,7 +7386,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6465,7 +7420,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6500,10 +7454,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6676,16 +7629,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="AQ267" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6713,8 +7671,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0.23958679999999999</v>
       </c>
@@ -6742,8 +7706,14 @@
       <c r="I2">
         <v>3.8037749999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>0.2387975</v>
       </c>
@@ -6771,8 +7741,16 @@
       <c r="I3">
         <v>3.8047979999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>SQRT((A3-A2)^2+(B3-B2)^2+(C3-C2)^2)*30</f>
+        <v>6.9495310430343751E-2</v>
+      </c>
+      <c r="L3">
+        <f>MEDIAN(K2:K4)</f>
+        <v>6.6454640398470474E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>0.2396809</v>
       </c>
@@ -6800,8 +7778,16 @@
       <c r="I4">
         <v>3.8046350000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="0">SQRT((A4-A3)^2+(B4-B3)^2+(C4-C3)^2)*30</f>
+        <v>6.6454640398470474E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="1">MEDIAN(K3:K5)</f>
+        <v>6.9495310430343751E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>0.2399945</v>
       </c>
@@ -6829,8 +7815,16 @@
       <c r="I5">
         <v>3.8035450000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.27482704153478688</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.2273685189730727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>0.23874429999999999</v>
       </c>
@@ -6858,8 +7852,16 @@
       <c r="I6">
         <v>3.8032689999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.2273685189730727</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.27482704153478688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>0.2473553</v>
       </c>
@@ -6887,8 +7889,16 @@
       <c r="I7">
         <v>3.806378</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.76523242032838645</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.2273685189730727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>0.2474256</v>
       </c>
@@ -6916,8 +7926,16 @@
       <c r="I8">
         <v>3.8051810000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>9.7580875903018088E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.76523242032838645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>0.24226410000000001</v>
       </c>
@@ -6945,8 +7963,16 @@
       <c r="I9">
         <v>3.8095720000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.82725743034427324</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.82725743034427324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>0.28629900000000003</v>
       </c>
@@ -6974,8 +8000,16 @@
       <c r="I10">
         <v>3.801714</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2.7002286080651841</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.82725743034427324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>0.29098980000000002</v>
       </c>
@@ -7003,8 +8037,16 @@
       <c r="I11">
         <v>3.8055560000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.38987889410046267</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2.7002286080651841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>0.25970880000000002</v>
       </c>
@@ -7032,8 +8074,16 @@
       <c r="I12">
         <v>3.8017129999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.0077075951634669</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>2.6929220105129326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>0.2464267</v>
       </c>
@@ -7061,8 +8111,16 @@
       <c r="I13">
         <v>3.8018770000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.6929220105129326</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>2.6929220105129326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>0.23644870000000001</v>
       </c>
@@ -7090,8 +8148,16 @@
       <c r="I14">
         <v>3.8008320000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1.6346292321734615</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1.6346292321734615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>0.20727280000000001</v>
       </c>
@@ -7119,8 +8185,16 @@
       <c r="I15">
         <v>3.796313</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1.2825374116683694</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1.2825374116683694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>0.17069110000000001</v>
       </c>
@@ -7148,8 +8222,16 @@
       <c r="I16">
         <v>3.796888</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1.1926503853476917</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1.2825374116683694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>0.1098922</v>
       </c>
@@ -7177,8 +8259,16 @@
       <c r="I17">
         <v>3.7916919999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>3.1875026263471518</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1.5523118823013882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>8.7609690000000004E-2</v>
       </c>
@@ -7206,8 +8296,16 @@
       <c r="I18">
         <v>3.793936</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.5523118823013882</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>2.1501196509470564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>7.0167900000000005E-2</v>
       </c>
@@ -7235,8 +8333,16 @@
       <c r="I19">
         <v>3.7949160000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2.1501196509470564</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>2.1501196509470564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>3.545885E-2</v>
       </c>
@@ -7264,8 +8370,16 @@
       <c r="I20">
         <v>3.7940140000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>3.0965929647845627</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2.1501196509470564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>-4.6063809999999997E-3</v>
       </c>
@@ -7293,8 +8407,16 @@
       <c r="I21">
         <v>3.7898890000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1.5439198482754901</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>3.0965929647845627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>-0.11667669999999999</v>
       </c>
@@ -7322,8 +8444,16 @@
       <c r="I22">
         <v>3.770079</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>3.4163206375136372</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1.5439198482754901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>-0.1222584</v>
       </c>
@@ -7351,8 +8481,16 @@
       <c r="I23">
         <v>3.765333</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.17581313986730218</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.89511630310479628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>-0.13327600000000001</v>
       </c>
@@ -7380,8 +8518,16 @@
       <c r="I24">
         <v>3.7638240000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0.89511630310479628</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.81833062481982854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>-0.14007810000000001</v>
       </c>
@@ -7409,8 +8555,16 @@
       <c r="I25">
         <v>3.6997499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0.81833062481982854</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.81833062481982854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>-0.1359272</v>
       </c>
@@ -7438,8 +8592,16 @@
       <c r="I26">
         <v>3.7021320000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0.49707894985605128</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.49707894985605128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>-0.12877179999999999</v>
       </c>
@@ -7467,8 +8629,16 @@
       <c r="I27">
         <v>3.7034289999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0.22815700945839715</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.49707894985605128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>-8.0770939999999999E-2</v>
       </c>
@@ -7496,8 +8666,16 @@
       <c r="I28">
         <v>3.6988829999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1.7856037369995157</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1.7856037369995157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>-9.7795889999999996E-2</v>
       </c>
@@ -7525,8 +8703,16 @@
       <c r="I29">
         <v>3.7122389999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1.8472401033845698</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>1.8472401033845698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>-3.1582100000000002E-2</v>
       </c>
@@ -7554,8 +8740,16 @@
       <c r="I30">
         <v>3.806</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>2.4181117208831977</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>1.9757549466307356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>7.0352829999999998E-3</v>
       </c>
@@ -7583,8 +8777,16 @@
       <c r="I31">
         <v>3.8101750000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1.9757549466307356</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>2.4181117208831977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>5.9614559999999997E-2</v>
       </c>
@@ -7612,8 +8814,16 @@
       <c r="I32">
         <v>3.8035369999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>2.9876058008047943</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>2.9876058008047943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>7.6284190000000002E-2</v>
       </c>
@@ -7641,8 +8851,16 @@
       <c r="I33">
         <v>3.783134</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>3.1963418219938879</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>2.9876058008047943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>0.14506769999999999</v>
       </c>
@@ -7670,8 +8888,16 @@
       <c r="I34">
         <v>3.7827540000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>2.7277657191975115</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>3.1963418219938879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>0.17808689999999999</v>
       </c>
@@ -7699,8 +8925,16 @@
       <c r="I35">
         <v>3.7859379999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>5.1859046391803245</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>4.0377891249005318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>0.25731349999999997</v>
       </c>
@@ -7728,8 +8962,16 @@
       <c r="I36">
         <v>3.784516</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>4.0377891249005318</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>4.0377891249005318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>0.29991479999999998</v>
       </c>
@@ -7757,8 +8999,16 @@
       <c r="I37">
         <v>3.7859750000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>3.1367428461137772</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>3.1367428461137772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>0.333399</v>
       </c>
@@ -7786,8 +9036,16 @@
       <c r="I38">
         <v>3.7862200000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>1.8272931954519578</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>2.5754944827424806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>0.36459029999999998</v>
       </c>
@@ -7815,8 +9073,16 @@
       <c r="I39">
         <v>3.7948629999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>2.5754944827424806</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>1.8272931954519578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>0.38989790000000002</v>
       </c>
@@ -7844,8 +9110,16 @@
       <c r="I40">
         <v>3.7916560000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>1.7639347466119604</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>2.0799478575909087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>0.40319359999999999</v>
       </c>
@@ -7873,8 +9147,16 @@
       <c r="I41">
         <v>3.792335</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>2.0799478575909087</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>1.7639347466119604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>0.40752270000000002</v>
       </c>
@@ -7902,8 +9184,16 @@
       <c r="I42">
         <v>3.7901349999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0.82451493956932054</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>2.0799478575909087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>0.34595320000000002</v>
       </c>
@@ -7931,8 +9221,16 @@
       <c r="I43">
         <v>3.7867510000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>3.7775540252932194</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>1.2835074620099549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>0.38612829999999998</v>
       </c>
@@ -7960,8 +9258,16 @@
       <c r="I44">
         <v>3.7864409999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>1.2835074620099549</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>3.7069016092750107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>0.40239940000000002</v>
       </c>
@@ -7989,8 +9295,16 @@
       <c r="I45">
         <v>3.7873049999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>3.7069016092750107</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>1.8784074133224782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>0.37975189999999998</v>
       </c>
@@ -8018,8 +9332,16 @@
       <c r="I46">
         <v>3.7871950000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>1.8784074133224782</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>2.4313981921952728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>0.4081475</v>
       </c>
@@ -8047,8 +9369,16 @@
       <c r="I47">
         <v>3.7873610000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>2.4313981921952728</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>2.4313981921952728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>0.32589099999999999</v>
       </c>
@@ -8076,8 +9406,16 @@
       <c r="I48">
         <v>3.786124</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>3.1966707340841345</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>3.1966707340841345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>0.1589672</v>
       </c>
@@ -8105,8 +9443,16 @@
       <c r="I49">
         <v>3.794092</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>7.4580393391458584</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>3.1966707340841345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>0.17515600000000001</v>
       </c>
@@ -8134,8 +9480,16 @@
       <c r="I50">
         <v>3.7941950000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>1.0329511796035458</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>7.4580393391458584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>0.19896810000000001</v>
       </c>
@@ -8163,8 +9517,16 @@
       <c r="I51">
         <v>3.79623</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>7.6423185398305566</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>1.0351487930698677</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>0.16904060000000001</v>
       </c>
@@ -8192,8 +9554,16 @@
       <c r="I52">
         <v>3.8025250000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>1.0351487930698677</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>2.678510297544141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>0.1051067</v>
       </c>
@@ -8221,8 +9591,16 @@
       <c r="I53">
         <v>3.8026070000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>2.678510297544141</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>1.0351487930698677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>9.1070230000000002E-2</v>
       </c>
@@ -8250,8 +9628,16 @@
       <c r="I54">
         <v>3.8258619999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0.77756327456729757</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>2.678510297544141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>2.0444560000000001E-2</v>
       </c>
@@ -8279,8 +9665,16 @@
       <c r="I55">
         <v>3.7965390000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>6.1821695037329949</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>0.77756327456729757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>5.2853279999999997E-3</v>
       </c>
@@ -8308,8 +9702,16 @@
       <c r="I56">
         <v>3.7873070000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0.62556276015700574</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>0.62556276015700574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>7.011443E-4</v>
       </c>
@@ -8337,8 +9739,16 @@
       <c r="I57">
         <v>3.773739</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0.35972518511594093</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>0.62409108546429848</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>-1.0062969999999999E-2</v>
       </c>
@@ -8366,8 +9776,16 @@
       <c r="I58">
         <v>3.708275</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>0.62409108546429848</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>0.35972518511594093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>-9.8729149999999995E-3</v>
       </c>
@@ -8395,8 +9813,16 @@
       <c r="I59">
         <v>3.6950370000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0.20726812878145412</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>0.62409108546429848</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>-3.5528200000000003E-2</v>
       </c>
@@ -8424,8 +9850,16 @@
       <c r="I60">
         <v>3.6872159999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>0.87707288322826837</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>0.87707288322826837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>-6.5551070000000003E-2</v>
       </c>
@@ -8453,8 +9887,16 @@
       <c r="I61">
         <v>3.6825060000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>0.93129912686239125</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>0.87707288322826837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>-6.6321089999999999E-2</v>
       </c>
@@ -8482,8 +9924,16 @@
       <c r="I62">
         <v>3.6820499999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>0.12573025426173307</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>0.12573025426173307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>-6.6528249999999997E-2</v>
       </c>
@@ -8511,8 +9961,16 @@
       <c r="I63">
         <v>3.6793269999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>9.276648496267316E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>0.12573025426173307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>-1.2229449999999999E-2</v>
       </c>
@@ -8540,8 +9998,16 @@
       <c r="I64">
         <v>3.678137</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>1.6943913804729411</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>0.60594244163222211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>-2.835638E-2</v>
       </c>
@@ -8569,8 +10035,16 @@
       <c r="I65">
         <v>3.6909890000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0.60594244163222211</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>0.64612318347359221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>-1.003191E-2</v>
       </c>
@@ -8598,8 +10072,16 @@
       <c r="I66">
         <v>3.71774</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>0.64612318347359221</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>0.60594244163222211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>-5.8838170000000004E-3</v>
       </c>
@@ -8627,8 +10109,16 @@
       <c r="I67">
         <v>3.7850480000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>0.18304380114944085</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>0.64612318347359221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>1.8700439999999999E-2</v>
       </c>
@@ -8656,8 +10146,16 @@
       <c r="I68">
         <v>3.7835459999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" ref="K68:K131" si="2">SQRT((A68-A67)^2+(B68-B67)^2+(C68-C67)^2)*30</f>
+        <v>0.76541317576352508</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L131" si="3">MEDIAN(K67:K69)</f>
+        <v>0.76541317576352508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>2.896255E-2</v>
       </c>
@@ -8685,8 +10183,16 @@
       <c r="I69">
         <v>3.7891970000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>0.82268507930538681</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="3"/>
+        <v>0.82268507930538681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>0.15506719999999999</v>
       </c>
@@ -8714,8 +10220,16 @@
       <c r="I70">
         <v>3.8133689999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>6.0967419549405637</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>5.5116654234654794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>8.1913410000000006E-2</v>
       </c>
@@ -8743,8 +10257,16 @@
       <c r="I71">
         <v>3.8131759999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>5.5116654234654794</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>6.0967419549405637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>0.2303162</v>
       </c>
@@ -8772,8 +10294,16 @@
       <c r="I72">
         <v>3.791296</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>6.6601261873581414</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="3"/>
+        <v>5.5116654234654794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>0.19531760000000001</v>
       </c>
@@ -8801,8 +10331,16 @@
       <c r="I73">
         <v>3.791696</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>3.6887620097755502</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="3"/>
+        <v>3.6887620097755502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>0.19353770000000001</v>
       </c>
@@ -8830,8 +10368,16 @@
       <c r="I74">
         <v>3.7889629999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>3.2058058750562255</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>3.2058058750562255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>0.14156050000000001</v>
       </c>
@@ -8859,8 +10405,16 @@
       <c r="I75">
         <v>3.7881559999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>2.0711458199178461</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="3"/>
+        <v>3.2058058750562255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>4.002551E-2</v>
       </c>
@@ -8888,8 +10442,16 @@
       <c r="I76">
         <v>3.7878699999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>3.3393511604602835</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>3.3393511604602835</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>0.2199933</v>
       </c>
@@ -8917,8 +10479,16 @@
       <c r="I77">
         <v>3.7890670000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>5.7291780992285544</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="3"/>
+        <v>3.3393511604602835</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>0.2202163</v>
       </c>
@@ -8946,8 +10516,16 @@
       <c r="I78">
         <v>3.7890630000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>0.24611124960524411</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>0.24611124960524411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>0.22085170000000001</v>
       </c>
@@ -8975,8 +10553,16 @@
       <c r="I79">
         <v>3.7909359999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>9.913830824665365E-2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="3"/>
+        <v>0.24611124960524411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>9.3015639999999997E-2</v>
       </c>
@@ -9004,8 +10590,16 @@
       <c r="I80">
         <v>3.7878769999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>4.1181568753331259</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="3"/>
+        <v>2.1125557479137922</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>2.7761910000000001E-2</v>
       </c>
@@ -9033,8 +10627,16 @@
       <c r="I81">
         <v>3.7860710000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>2.1125557479137922</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="3"/>
+        <v>2.1125557479137922</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>3.4033819999999999E-2</v>
       </c>
@@ -9062,8 +10664,16 @@
       <c r="I82">
         <v>3.7849110000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>0.5119032975887603</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="3"/>
+        <v>2.1125557479137922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>8.5584460000000001E-2</v>
       </c>
@@ -9091,8 +10701,16 @@
       <c r="I83">
         <v>3.7764730000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>2.6805445586667531</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>2.2288375408638617</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>0.12914339999999999</v>
       </c>
@@ -9120,8 +10738,16 @@
       <c r="I84">
         <v>3.7834680000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>2.2288375408638617</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>2.2288375408638617</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>8.8559460000000007E-2</v>
       </c>
@@ -9149,8 +10775,16 @@
       <c r="I85">
         <v>3.7825890000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>1.2664689988433522</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="3"/>
+        <v>2.2288375408638617</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>9.5254190000000002E-2</v>
       </c>
@@ -9178,8 +10812,16 @@
       <c r="I86">
         <v>3.7859750000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>8.8727826724476735</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>2.2941054402199317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>2.709698E-2</v>
       </c>
@@ -9207,8 +10849,16 @@
       <c r="I87">
         <v>3.7777219999999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="2"/>
+        <v>2.2941054402199317</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="3"/>
+        <v>2.2941054402199317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>3.3114579999999998E-2</v>
       </c>
@@ -9236,8 +10886,16 @@
       <c r="I88">
         <v>3.773679</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="2"/>
+        <v>1.027565028009418</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="3"/>
+        <v>1.027565028009418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>3.4916669999999997E-2</v>
       </c>
@@ -9265,8 +10923,16 @@
       <c r="I89">
         <v>3.7589100000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>0.34670704765736665</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="3"/>
+        <v>1.027565028009418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>-6.8296040000000002E-2</v>
       </c>
@@ -9294,8 +10960,16 @@
       <c r="I90">
         <v>3.725905</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f t="shared" si="2"/>
+        <v>3.5926673133106402</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="3"/>
+        <v>0.34670704765736665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>-6.6490659999999993E-2</v>
       </c>
@@ -9323,8 +10997,16 @@
       <c r="I91">
         <v>3.722626</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="2"/>
+        <v>0.11230302016846147</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="3"/>
+        <v>1.774783949030259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>-0.1000122</v>
       </c>
@@ -9352,8 +11034,16 @@
       <c r="I92">
         <v>3.7210399999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="2"/>
+        <v>1.774783949030259</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="3"/>
+        <v>0.80896044163170377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>-9.6091079999999995E-2</v>
       </c>
@@ -9381,8 +11071,16 @@
       <c r="I93">
         <v>3.713238</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f t="shared" si="2"/>
+        <v>0.80896044163170377</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="3"/>
+        <v>0.80896044163170377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>-0.1015548</v>
       </c>
@@ -9410,8 +11108,16 @@
       <c r="I94">
         <v>3.7104279999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>0.76811518901696518</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>0.76811518901696518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>-0.10332719999999999</v>
       </c>
@@ -9439,8 +11145,16 @@
       <c r="I95">
         <v>3.7089539999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="2"/>
+        <v>6.9334454097510156E-2</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>0.76811518901696518</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>-8.2591070000000003E-2</v>
       </c>
@@ -9468,8 +11182,16 @@
       <c r="I96">
         <v>3.7101120000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f t="shared" si="2"/>
+        <v>3.2506404253728598</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="3"/>
+        <v>0.44213035264586836</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>-7.6469990000000002E-2</v>
       </c>
@@ -9497,8 +11219,16 @@
       <c r="I97">
         <v>3.709797</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="2"/>
+        <v>0.44213035264586836</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="3"/>
+        <v>1.8812286885479965</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>-6.2841789999999995E-2</v>
       </c>
@@ -9526,8 +11256,16 @@
       <c r="I98">
         <v>3.7132550000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="2"/>
+        <v>1.8812286885479965</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="3"/>
+        <v>1.8812286885479965</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>-4.5646630000000001E-2</v>
       </c>
@@ -9555,8 +11293,16 @@
       <c r="I99">
         <v>3.7519610000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f t="shared" si="2"/>
+        <v>1.9204719532445749</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="3"/>
+        <v>1.8812286885479965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>-3.2165800000000001E-2</v>
       </c>
@@ -9584,8 +11330,16 @@
       <c r="I100">
         <v>3.774553</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f t="shared" si="2"/>
+        <v>0.43150587416628539</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="3"/>
+        <v>1.6362926684215906</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>1.6681049999999999E-2</v>
       </c>
@@ -9613,8 +11367,16 @@
       <c r="I101">
         <v>3.776052</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="2"/>
+        <v>1.6362926684215906</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="3"/>
+        <v>0.44105661731092866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>2.8277130000000001E-2</v>
       </c>
@@ -9642,8 +11404,16 @@
       <c r="I102">
         <v>3.7986810000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="2"/>
+        <v>0.44105661731092866</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="3"/>
+        <v>0.81212046298178708</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>5.093905E-2</v>
       </c>
@@ -9671,8 +11441,16 @@
       <c r="I103">
         <v>3.8061959999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="2"/>
+        <v>0.81212046298178708</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="3"/>
+        <v>0.81212046298178708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>8.0167059999999998E-2</v>
       </c>
@@ -9700,8 +11478,16 @@
       <c r="I104">
         <v>3.7968549999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="2"/>
+        <v>0.92217500739723313</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="3"/>
+        <v>0.92217500739723313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>0.1713527</v>
       </c>
@@ -9729,8 +11515,16 @@
       <c r="I105">
         <v>3.793847</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f t="shared" si="2"/>
+        <v>2.8139771685992114</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="3"/>
+        <v>2.8139771685992114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>0.21085019999999999</v>
       </c>
@@ -9758,8 +11552,16 @@
       <c r="I106">
         <v>3.7851599999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f t="shared" si="2"/>
+        <v>2.8548450464825583</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="3"/>
+        <v>2.8139771685992114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>0.23613519999999999</v>
       </c>
@@ -9787,8 +11589,16 @@
       <c r="I107">
         <v>3.7882570000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="2"/>
+        <v>0.82940941719334216</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="3"/>
+        <v>2.8331564753724763</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>0.24173459999999999</v>
       </c>
@@ -9816,8 +11626,16 @@
       <c r="I108">
         <v>3.78931</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f t="shared" si="2"/>
+        <v>2.8331564753724763</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="3"/>
+        <v>0.82940941719334216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>0.240839</v>
       </c>
@@ -9845,8 +11663,16 @@
       <c r="I109">
         <v>3.7888229999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <f t="shared" si="2"/>
+        <v>6.4591604973094102E-2</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="3"/>
+        <v>0.47447547347044322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>0.2413662</v>
       </c>
@@ -9874,8 +11700,16 @@
       <c r="I110">
         <v>3.7839499999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f t="shared" si="2"/>
+        <v>0.47447547347044322</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="3"/>
+        <v>0.47447547347044322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>0.33594350000000001</v>
       </c>
@@ -9903,8 +11737,16 @@
       <c r="I111">
         <v>3.7808639999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f t="shared" si="2"/>
+        <v>2.9773268778965121</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="3"/>
+        <v>1.9857294679714013</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>0.30661480000000002</v>
       </c>
@@ -9932,8 +11774,16 @@
       <c r="I112">
         <v>3.779363</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <f t="shared" si="2"/>
+        <v>1.9857294679714013</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="3"/>
+        <v>1.9857294679714013</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>0.28763480000000002</v>
       </c>
@@ -9961,8 +11811,16 @@
       <c r="I113">
         <v>3.7808959999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f t="shared" si="2"/>
+        <v>1.0334800926486218</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="3"/>
+        <v>1.0334800926486218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>0.2844757</v>
       </c>
@@ -9990,8 +11848,16 @@
       <c r="I114">
         <v>3.7806690000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <f t="shared" si="2"/>
+        <v>0.40350902824843854</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="3"/>
+        <v>1.0334800926486218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>0.22747200000000001</v>
       </c>
@@ -10019,8 +11885,16 @@
       <c r="I115">
         <v>3.7798509999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f t="shared" si="2"/>
+        <v>3.9864338321769481</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="3"/>
+        <v>3.9864338321769481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>0.24522759999999999</v>
       </c>
@@ -10048,8 +11922,16 @@
       <c r="I116">
         <v>3.7703479999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f t="shared" si="2"/>
+        <v>4.2977692536803254</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="3"/>
+        <v>3.9864338321769481</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>0.20353950000000001</v>
       </c>
@@ -10077,8 +11959,16 @@
       <c r="I117">
         <v>3.774931</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f t="shared" si="2"/>
+        <v>2.8479211370531252</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="3"/>
+        <v>2.8479211370531252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>0.19307250000000001</v>
       </c>
@@ -10106,8 +11996,16 @@
       <c r="I118">
         <v>3.7747700000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <f t="shared" si="2"/>
+        <v>0.32007655162476267</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="3"/>
+        <v>1.7493492662132917</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>0.14914169999999999</v>
       </c>
@@ -10135,8 +12033,16 @@
       <c r="I119">
         <v>3.7778659999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <f t="shared" si="2"/>
+        <v>1.7493492662132917</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="3"/>
+        <v>1.5131794824064961</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>0.1045437</v>
       </c>
@@ -10164,8 +12070,16 @@
       <c r="I120">
         <v>3.7746960000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f t="shared" si="2"/>
+        <v>1.5131794824064961</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="3"/>
+        <v>1.5311474454526717</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>7.3442350000000003E-2</v>
       </c>
@@ -10193,8 +12107,16 @@
       <c r="I121">
         <v>3.7691849999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <f t="shared" si="2"/>
+        <v>1.5311474454526717</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="3"/>
+        <v>1.5311474454526717</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>7.8990260000000007E-2</v>
       </c>
@@ -10222,8 +12144,16 @@
       <c r="I122">
         <v>3.769215</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="2"/>
+        <v>3.9339175168974108</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="3"/>
+        <v>1.5311474454526717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>5.0244669999999998E-2</v>
       </c>
@@ -10251,8 +12181,16 @@
       <c r="I123">
         <v>3.7749730000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f t="shared" si="2"/>
+        <v>1.2465432202644589</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="3"/>
+        <v>1.2465432202644589</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>4.7442079999999998E-2</v>
       </c>
@@ -10280,8 +12218,16 @@
       <c r="I124">
         <v>3.773739</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <f t="shared" si="2"/>
+        <v>0.19675577180172463</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="3"/>
+        <v>1.2465432202644589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>-7.3902579999999995E-2</v>
       </c>
@@ -10309,8 +12255,16 @@
       <c r="I125">
         <v>3.750597</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f t="shared" si="2"/>
+        <v>4.6438819920593382</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="3"/>
+        <v>1.1467851117451615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>-0.11159760000000001</v>
       </c>
@@ -10338,8 +12292,16 @@
       <c r="I126">
         <v>3.7425839999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f t="shared" si="2"/>
+        <v>1.1467851117451615</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="3"/>
+        <v>1.2611350069540557</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>-0.12564130000000001</v>
       </c>
@@ -10367,8 +12329,16 @@
       <c r="I127">
         <v>3.715554</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <f t="shared" si="2"/>
+        <v>1.2611350069540557</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="3"/>
+        <v>1.2611350069540557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>-0.14895320000000001</v>
       </c>
@@ -10396,8 +12366,16 @@
       <c r="I128">
         <v>3.7150530000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="2"/>
+        <v>1.3523340080960038</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="3"/>
+        <v>1.2611350069540557</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>-0.1408259</v>
       </c>
@@ -10425,8 +12403,16 @@
       <c r="I129">
         <v>3.7157369999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="2"/>
+        <v>0.26823623979992078</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="3"/>
+        <v>0.71362066372408306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>-0.16163040000000001</v>
       </c>
@@ -10454,8 +12440,16 @@
       <c r="I130">
         <v>3.7138019999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" si="2"/>
+        <v>0.71362066372408306</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="3"/>
+        <v>0.71362066372408306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>-0.11631569999999999</v>
       </c>
@@ -10483,8 +12477,16 @@
       <c r="I131">
         <v>3.7225899999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <f t="shared" si="2"/>
+        <v>1.6371425877060941</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="3"/>
+        <v>0.74560029382913295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132">
         <v>-9.5656690000000003E-2</v>
       </c>
@@ -10512,8 +12514,16 @@
       <c r="I132">
         <v>3.70818</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" ref="K132:K195" si="4">SQRT((A132-A131)^2+(B132-B131)^2+(C132-C131)^2)*30</f>
+        <v>0.74560029382913295</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ref="L132:L195" si="5">MEDIAN(K131:K133)</f>
+        <v>0.87903658296526443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133">
         <v>-6.7949040000000002E-2</v>
       </c>
@@ -10541,8 +12551,16 @@
       <c r="I133">
         <v>3.7897880000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="4"/>
+        <v>0.87903658296526443</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="5"/>
+        <v>0.87903658296526443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134">
         <v>1.6962189999999999E-2</v>
       </c>
@@ -10570,8 +12588,16 @@
       <c r="I134">
         <v>3.7856529999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="4"/>
+        <v>2.8035632580861471</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="5"/>
+        <v>2.8035632580861471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135">
         <v>5.636008E-2</v>
       </c>
@@ -10599,8 +12625,16 @@
       <c r="I135">
         <v>3.787452</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <f t="shared" si="4"/>
+        <v>3.5053675092680208</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="5"/>
+        <v>2.8035632580861471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136">
         <v>6.6796590000000003E-2</v>
       </c>
@@ -10628,8 +12662,16 @@
       <c r="I136">
         <v>3.785463</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <f t="shared" si="4"/>
+        <v>0.35733493560956331</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="5"/>
+        <v>1.3106557319098733</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137">
         <v>9.0248460000000003E-2</v>
       </c>
@@ -10657,8 +12699,16 @@
       <c r="I137">
         <v>3.7841209999999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <f t="shared" si="4"/>
+        <v>1.3106557319098733</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="5"/>
+        <v>1.3106557319098733</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138">
         <v>0.16067049999999999</v>
       </c>
@@ -10686,8 +12736,16 @@
       <c r="I138">
         <v>3.7820719999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <f t="shared" si="4"/>
+        <v>4.2334408538669157</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="5"/>
+        <v>1.4056838446411053</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139">
         <v>0.13748189999999999</v>
       </c>
@@ -10715,8 +12773,16 @@
       <c r="I139">
         <v>3.7818640000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <f t="shared" si="4"/>
+        <v>1.4056838446411053</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="5"/>
+        <v>2.7044408055618425</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140">
         <v>0.21880830000000001</v>
       </c>
@@ -10744,8 +12810,16 @@
       <c r="I140">
         <v>3.781037</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <f t="shared" si="4"/>
+        <v>2.7044408055618425</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="5"/>
+        <v>1.4056838446411053</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141">
         <v>0.23168749999999999</v>
       </c>
@@ -10773,8 +12847,16 @@
       <c r="I141">
         <v>3.782651</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" si="4"/>
+        <v>1.1025128875165136</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="5"/>
+        <v>1.5146779131277397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142">
         <v>0.27525729999999998</v>
       </c>
@@ -10802,8 +12884,16 @@
       <c r="I142">
         <v>3.7865920000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="4"/>
+        <v>1.5146779131277397</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="5"/>
+        <v>1.1025128875165136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143">
         <v>0.28251219999999999</v>
       </c>
@@ -10831,8 +12921,16 @@
       <c r="I143">
         <v>3.7867850000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f t="shared" si="4"/>
+        <v>0.39474504294544327</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="5"/>
+        <v>1.0737118398257524</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144">
         <v>0.31562390000000001</v>
       </c>
@@ -10860,8 +12958,16 @@
       <c r="I144">
         <v>3.7875779999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="4"/>
+        <v>1.0737118398257524</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="5"/>
+        <v>1.0737118398257524</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>0.38575660000000001</v>
       </c>
@@ -10889,8 +12995,16 @@
       <c r="I145">
         <v>3.788481</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <f t="shared" si="4"/>
+        <v>2.94808751636667</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="5"/>
+        <v>1.5683678470786127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>0.33922970000000002</v>
       </c>
@@ -10918,8 +13032,16 @@
       <c r="I146">
         <v>3.7894950000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <f t="shared" si="4"/>
+        <v>1.5683678470786127</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="5"/>
+        <v>1.5683678470786127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>0.34497709999999998</v>
       </c>
@@ -10947,8 +13069,16 @@
       <c r="I147">
         <v>3.7904849999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <f t="shared" si="4"/>
+        <v>0.27424197835669895</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="5"/>
+        <v>1.1329045263679485</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>0.33270880000000003</v>
       </c>
@@ -10976,8 +13106,16 @@
       <c r="I148">
         <v>3.789418</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="4"/>
+        <v>1.1329045263679485</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="5"/>
+        <v>0.47273652521885984</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>0.32514680000000001</v>
       </c>
@@ -11005,8 +13143,16 @@
       <c r="I149">
         <v>3.7919450000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <f t="shared" si="4"/>
+        <v>0.47273652521885984</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="5"/>
+        <v>1.1329045263679485</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>0.28175149999999999</v>
       </c>
@@ -11034,8 +13180,16 @@
       <c r="I150">
         <v>3.7977729999999998</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <f t="shared" si="4"/>
+        <v>2.1766246722404881</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="5"/>
+        <v>0.47273652521885984</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>0.28381669999999998</v>
       </c>
@@ -11063,8 +13217,16 @@
       <c r="I151">
         <v>3.8085640000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <f t="shared" si="4"/>
+        <v>0.1901147416167408</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="5"/>
+        <v>1.522088897351596</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>0.24380769999999999</v>
       </c>
@@ -11092,8 +13254,16 @@
       <c r="I152">
         <v>3.8017310000000002</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="4"/>
+        <v>1.522088897351596</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="5"/>
+        <v>1.522088897351596</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>0.20997489999999999</v>
       </c>
@@ -11121,8 +13291,16 @@
       <c r="I153">
         <v>3.8000479999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <f t="shared" si="4"/>
+        <v>2.2656920814940871</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="5"/>
+        <v>1.522088897351596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>0.1642991</v>
       </c>
@@ -11150,8 +13328,16 @@
       <c r="I154">
         <v>3.7984239999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="4"/>
+        <v>1.3786510911267582</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="5"/>
+        <v>2.2617606904173138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>0.1022424</v>
       </c>
@@ -11179,8 +13365,16 @@
       <c r="I155">
         <v>3.7988689999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <f t="shared" si="4"/>
+        <v>2.2617606904173138</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="5"/>
+        <v>2.2617606904173138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>4.2584589999999999E-2</v>
       </c>
@@ -11208,8 +13402,16 @@
       <c r="I156">
         <v>3.7975970000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="4"/>
+        <v>2.2758499951283002</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="5"/>
+        <v>2.2617606904173138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>5.1536190000000003E-2</v>
       </c>
@@ -11237,8 +13439,16 @@
       <c r="I157">
         <v>3.7933650000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <f t="shared" si="4"/>
+        <v>1.0665135035938289</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="5"/>
+        <v>1.0665135035938289</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>1.6714349999999999E-2</v>
       </c>
@@ -11266,8 +13476,16 @@
       <c r="I158">
         <v>3.7964790000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <f t="shared" si="4"/>
+        <v>1.0641657409332628</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="5"/>
+        <v>1.0641657409332628</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>1.493709E-2</v>
       </c>
@@ -11295,8 +13513,16 @@
       <c r="I159">
         <v>3.789644</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <f t="shared" si="4"/>
+        <v>0.48221914460319543</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="5"/>
+        <v>1.0641657409332628</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>-7.2512660000000001E-3</v>
       </c>
@@ -11324,8 +13550,16 @@
       <c r="I160">
         <v>3.7546210000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <f t="shared" si="4"/>
+        <v>2.0028533496503038</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="5"/>
+        <v>1.2131786088127239</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>-4.4637509999999998E-2</v>
       </c>
@@ -11353,8 +13587,16 @@
       <c r="I161">
         <v>3.7482890000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="4"/>
+        <v>1.2131786088127239</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="5"/>
+        <v>2.0028533496503038</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>-0.1410111</v>
       </c>
@@ -11382,8 +13624,16 @@
       <c r="I162">
         <v>3.737479</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <f t="shared" si="4"/>
+        <v>3.2521166228048024</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="5"/>
+        <v>1.2131786088127239</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>-0.12604499999999999</v>
       </c>
@@ -11411,8 +13661,16 @@
       <c r="I163">
         <v>3.6823999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <f t="shared" si="4"/>
+        <v>0.66187529575064219</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="5"/>
+        <v>0.66187529575064219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>-0.13790150000000001</v>
       </c>
@@ -11440,8 +13698,16 @@
       <c r="I164">
         <v>3.6826530000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <f t="shared" si="4"/>
+        <v>0.53692910925093307</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="5"/>
+        <v>0.66187529575064219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>-0.1138933</v>
       </c>
@@ -11469,8 +13735,16 @@
       <c r="I165">
         <v>3.6811579999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <f t="shared" si="4"/>
+        <v>0.91930820016575721</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="5"/>
+        <v>0.91930820016575721</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>-0.1512752</v>
       </c>
@@ -11498,8 +13772,16 @@
       <c r="I166">
         <v>3.6816399999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <f t="shared" si="4"/>
+        <v>1.2945044567513095</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="5"/>
+        <v>1.2945044567513095</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>-8.3421079999999995E-2</v>
       </c>
@@ -11527,8 +13809,16 @@
       <c r="I167">
         <v>3.692758</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <f t="shared" si="4"/>
+        <v>2.1340283126699524</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="5"/>
+        <v>1.2945044567513095</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>-9.1176450000000006E-2</v>
       </c>
@@ -11556,8 +13846,16 @@
       <c r="I168">
         <v>3.7852049999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <f t="shared" si="4"/>
+        <v>0.64289142612825212</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="5"/>
+        <v>2.1340283126699524</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>3.8927780000000002E-2</v>
       </c>
@@ -11585,8 +13883,16 @@
       <c r="I169">
         <v>3.808316</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <f t="shared" si="4"/>
+        <v>4.7840286857467333</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="5"/>
+        <v>0.75535917170989486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>4.3112129999999999E-2</v>
       </c>
@@ -11614,8 +13920,16 @@
       <c r="I170">
         <v>3.80776</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f t="shared" si="4"/>
+        <v>0.75535917170989486</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="5"/>
+        <v>0.75535917170989486</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>5.4783909999999998E-2</v>
       </c>
@@ -11643,8 +13957,16 @@
       <c r="I171">
         <v>3.8079529999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <f t="shared" si="4"/>
+        <v>0.41088218315176472</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="5"/>
+        <v>0.75535917170989486</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>7.7720250000000005E-2</v>
       </c>
@@ -11672,8 +13994,16 @@
       <c r="I172">
         <v>3.8050380000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <f t="shared" si="4"/>
+        <v>0.83805055712650289</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="5"/>
+        <v>0.83805055712650289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>0.12147819999999999</v>
       </c>
@@ -11701,8 +14031,16 @@
       <c r="I173">
         <v>3.8013159999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <f t="shared" si="4"/>
+        <v>4.4859250996598483</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="5"/>
+        <v>2.4615917340965772</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>7.8667979999999998E-2</v>
       </c>
@@ -11730,8 +14068,16 @@
       <c r="I174">
         <v>3.8011309999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <f t="shared" si="4"/>
+        <v>2.4615917340965772</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="5"/>
+        <v>3.4704864460263449</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>0.18883320000000001</v>
       </c>
@@ -11759,8 +14105,16 @@
       <c r="I175">
         <v>3.7961659999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <f t="shared" si="4"/>
+        <v>3.4704864460263449</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="5"/>
+        <v>3.4704864460263449</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>0.294653</v>
       </c>
@@ -11788,8 +14142,16 @@
       <c r="I176">
         <v>3.7973629999999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <f t="shared" si="4"/>
+        <v>3.5835473512250386</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="5"/>
+        <v>3.4704864460263449</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177">
         <v>0.28464539999999999</v>
       </c>
@@ -11817,8 +14179,16 @@
       <c r="I177">
         <v>3.802886</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <f t="shared" si="4"/>
+        <v>2.2120355800981151</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="5"/>
+        <v>2.2120355800981151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178">
         <v>0.3257369</v>
       </c>
@@ -11846,8 +14216,16 @@
       <c r="I178">
         <v>3.8024200000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <f t="shared" si="4"/>
+        <v>1.7028899302600282</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="5"/>
+        <v>1.7028899302600282</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179">
         <v>0.32627800000000001</v>
       </c>
@@ -11875,8 +14253,16 @@
       <c r="I179">
         <v>3.7995130000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <f t="shared" si="4"/>
+        <v>0.61649338642437912</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="5"/>
+        <v>0.63061243298637826</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180">
         <v>0.33620030000000001</v>
       </c>
@@ -11904,8 +14290,16 @@
       <c r="I180">
         <v>3.7970480000000002</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <f t="shared" si="4"/>
+        <v>0.63061243298637826</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="5"/>
+        <v>0.63061243298637826</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181">
         <v>0.32531130000000003</v>
       </c>
@@ -11933,8 +14327,16 @@
       <c r="I181">
         <v>3.7978689999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <f t="shared" si="4"/>
+        <v>1.3701140881824454</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="5"/>
+        <v>1.0168508451552773</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182">
         <v>0.29351939999999999</v>
       </c>
@@ -11962,8 +14364,16 @@
       <c r="I182">
         <v>3.7948439999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <f t="shared" si="4"/>
+        <v>1.0168508451552773</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="5"/>
+        <v>1.2206085562099753</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183">
         <v>0.2812095</v>
       </c>
@@ -11991,8 +14401,16 @@
       <c r="I183">
         <v>3.7962889999999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <f t="shared" si="4"/>
+        <v>1.2206085562099753</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="5"/>
+        <v>1.0168508451552773</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184">
         <v>0.27125159999999998</v>
       </c>
@@ -12020,8 +14438,16 @@
       <c r="I184">
         <v>3.8028240000000002</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <f t="shared" si="4"/>
+        <v>0.5671257511108112</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="5"/>
+        <v>0.74969843512441869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185">
         <v>0.26107019999999997</v>
       </c>
@@ -12049,8 +14475,16 @@
       <c r="I185">
         <v>3.8049940000000002</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <f t="shared" si="4"/>
+        <v>0.74969843512441869</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="5"/>
+        <v>0.6481119469412705</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186">
         <v>0.24351780000000001</v>
       </c>
@@ -12078,8 +14512,16 @@
       <c r="I186">
         <v>3.8045010000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <f t="shared" si="4"/>
+        <v>0.6481119469412705</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="5"/>
+        <v>0.74969843512441869</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187">
         <v>0.20869789999999999</v>
       </c>
@@ -12107,8 +14549,16 @@
       <c r="I187">
         <v>3.7999649999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <f t="shared" si="4"/>
+        <v>3.9201172831600335</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="5"/>
+        <v>3.9201172831600335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188">
         <v>4.4949749999999997E-2</v>
       </c>
@@ -12136,8 +14586,16 @@
       <c r="I188">
         <v>3.798835</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <f t="shared" si="4"/>
+        <v>5.0480210557263172</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="5"/>
+        <v>3.9201172831600335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189">
         <v>0.1113413</v>
       </c>
@@ -12165,8 +14623,16 @@
       <c r="I189">
         <v>3.7957900000000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <f t="shared" si="4"/>
+        <v>2.207966223127348</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="5"/>
+        <v>2.207966223127348</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190">
         <v>6.2188739999999999E-2</v>
       </c>
@@ -12194,8 +14660,16 @@
       <c r="I190">
         <v>3.7906629999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <f t="shared" si="4"/>
+        <v>1.6793359051980126</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="5"/>
+        <v>2.207966223127348</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191">
         <v>7.7142420000000003E-2</v>
       </c>
@@ -12223,8 +14697,16 @@
       <c r="I191">
         <v>3.7995049999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <f t="shared" si="4"/>
+        <v>3.2589898760366172</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="5"/>
+        <v>1.6793359051980126</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192">
         <v>5.3113210000000001E-2</v>
       </c>
@@ -12252,8 +14734,16 @@
       <c r="I192">
         <v>3.8053330000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <f t="shared" si="4"/>
+        <v>0.77631148412392159</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="5"/>
+        <v>2.9045975237923911</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193">
         <v>-3.2289680000000001E-2</v>
       </c>
@@ -12281,8 +14771,16 @@
       <c r="I193">
         <v>3.7951739999999998</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <f t="shared" si="4"/>
+        <v>2.9045975237923911</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="5"/>
+        <v>1.5311508481071385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194">
         <v>-6.1672049999999999E-2</v>
       </c>
@@ -12310,8 +14808,16 @@
       <c r="I194">
         <v>3.789018</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <f t="shared" si="4"/>
+        <v>1.5311508481071385</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="5"/>
+        <v>1.5311508481071385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195">
         <v>-3.6534379999999998E-2</v>
       </c>
@@ -12339,8 +14845,16 @@
       <c r="I195">
         <v>3.705508</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <f t="shared" si="4"/>
+        <v>1.5192909384123896</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="5"/>
+        <v>1.5311508481071385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196">
         <v>-0.13332150000000001</v>
       </c>
@@ -12368,8 +14882,16 @@
       <c r="I196">
         <v>3.6890849999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <f t="shared" ref="K196:K259" si="6">SQRT((A196-A195)^2+(B196-B195)^2+(C196-C195)^2)*30</f>
+        <v>3.5063263054556044</v>
+      </c>
+      <c r="L196">
+        <f t="shared" ref="L196:L259" si="7">MEDIAN(K195:K197)</f>
+        <v>1.5192909384123896</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197">
         <v>-0.14364260000000001</v>
       </c>
@@ -12397,8 +14919,16 @@
       <c r="I197">
         <v>3.6871339999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <f t="shared" si="6"/>
+        <v>0.91093852368039052</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="7"/>
+        <v>3.5063263054556044</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198">
         <v>-0.25731540000000003</v>
       </c>
@@ -12426,8 +14956,16 @@
       <c r="I198">
         <v>3.6783459999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <f t="shared" si="6"/>
+        <v>8.7803768688432093</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="7"/>
+        <v>8.7803768688432093</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199">
         <v>-0.1601987</v>
       </c>
@@ -12455,8 +14993,16 @@
       <c r="I199">
         <v>3.6776520000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <f t="shared" si="6"/>
+        <v>8.7810162030628955</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="7"/>
+        <v>8.7803768688432093</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200">
         <v>-0.1907412</v>
       </c>
@@ -12484,8 +15030,16 @@
       <c r="I200">
         <v>3.6734849999999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <f t="shared" si="6"/>
+        <v>1.4322409395772056</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="7"/>
+        <v>1.4322409395772056</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201">
         <v>-0.182668</v>
       </c>
@@ -12513,8 +15067,16 @@
       <c r="I201">
         <v>3.6745899999999998</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <f t="shared" si="6"/>
+        <v>0.54777430327188581</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="7"/>
+        <v>0.54777430327188581</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202">
         <v>-0.1801025</v>
       </c>
@@ -12542,8 +15104,16 @@
       <c r="I202">
         <v>3.683179</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <f t="shared" si="6"/>
+        <v>0.11455107722758408</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="7"/>
+        <v>0.54777430327188581</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203">
         <v>-0.1565434</v>
       </c>
@@ -12571,8 +15141,16 @@
       <c r="I203">
         <v>3.7101799999999998</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <f t="shared" si="6"/>
+        <v>0.81035443813062358</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="7"/>
+        <v>0.81035443813062358</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204">
         <v>-2.6895309999999999E-2</v>
       </c>
@@ -12600,8 +15178,16 @@
       <c r="I204">
         <v>3.72533</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <f t="shared" si="6"/>
+        <v>3.9947996288184844</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="7"/>
+        <v>2.4747397077389124</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205">
         <v>-9.5661019999999999E-2</v>
       </c>
@@ -12629,8 +15215,16 @@
       <c r="I205">
         <v>3.7752569999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <f t="shared" si="6"/>
+        <v>2.4747397077389124</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="7"/>
+        <v>3.9947996288184844</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206">
         <v>3.0420579999999999E-2</v>
       </c>
@@ -12658,8 +15252,16 @@
       <c r="I206">
         <v>3.7853490000000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <f t="shared" si="6"/>
+        <v>4.8756267353315712</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="7"/>
+        <v>2.7244910749927693</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207">
         <v>1.282173E-2</v>
       </c>
@@ -12687,8 +15289,16 @@
       <c r="I207">
         <v>3.8022719999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <f t="shared" si="6"/>
+        <v>2.7244910749927693</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="7"/>
+        <v>2.7244910749927693</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208">
         <v>5.4378889999999999E-2</v>
       </c>
@@ -12716,8 +15326,16 @@
       <c r="I208">
         <v>3.8048410000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <f t="shared" si="6"/>
+        <v>1.4431617740167002</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="7"/>
+        <v>1.4431617740167002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209">
         <v>7.9469579999999998E-2</v>
       </c>
@@ -12745,8 +15363,16 @@
       <c r="I209">
         <v>3.8037169999999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <f t="shared" si="6"/>
+        <v>1.2110491864567163</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="7"/>
+        <v>1.2110491864567163</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210">
         <v>8.7780810000000001E-2</v>
       </c>
@@ -12774,8 +15400,16 @@
       <c r="I210">
         <v>3.7909359999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <f t="shared" si="6"/>
+        <v>1.1715996690980301</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="7"/>
+        <v>1.2110491864567163</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211">
         <v>0.1677554</v>
       </c>
@@ -12803,8 +15437,16 @@
       <c r="I211">
         <v>3.788815</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <f t="shared" si="6"/>
+        <v>3.089681484166495</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="7"/>
+        <v>3.089681484166495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212">
         <v>3.010562E-2</v>
       </c>
@@ -12832,8 +15474,16 @@
       <c r="I212">
         <v>3.7888190000000002</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <f t="shared" si="6"/>
+        <v>4.2523719064356964</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="7"/>
+        <v>4.2523719064356964</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213">
         <v>0.19024740000000001</v>
       </c>
@@ -12861,8 +15511,16 @@
       <c r="I213">
         <v>3.7887019999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <f t="shared" si="6"/>
+        <v>5.6617171703598501</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="7"/>
+        <v>4.2523719064356964</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214">
         <v>0.30236730000000001</v>
       </c>
@@ -12890,8 +15548,16 @@
       <c r="I214">
         <v>3.7849849999999998</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <f t="shared" si="6"/>
+        <v>4.0494165115424909</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="7"/>
+        <v>4.0494165115424909</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215">
         <v>0.26972819999999997</v>
       </c>
@@ -12919,8 +15585,16 @@
       <c r="I215">
         <v>3.7867739999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <f t="shared" si="6"/>
+        <v>1.5321870708281666</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="7"/>
+        <v>2.3954820024590071</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216">
         <v>0.32943840000000002</v>
       </c>
@@ -12948,8 +15622,16 @@
       <c r="I216">
         <v>3.7890600000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <f t="shared" si="6"/>
+        <v>2.3954820024590071</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="7"/>
+        <v>1.5321870708281666</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217">
         <v>0.32962960000000002</v>
       </c>
@@ -12977,8 +15659,16 @@
       <c r="I217">
         <v>3.789148</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <f t="shared" si="6"/>
+        <v>0.87831216046460092</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="7"/>
+        <v>1.2894920916787356</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218">
         <v>0.29433330000000002</v>
       </c>
@@ -13006,8 +15696,16 @@
       <c r="I218">
         <v>3.7911959999999998</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <f t="shared" si="6"/>
+        <v>1.2894920916787356</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="7"/>
+        <v>1.2894920916787356</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219">
         <v>0.22340109999999999</v>
       </c>
@@ -13035,8 +15733,16 @@
       <c r="I219">
         <v>3.7891140000000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <f t="shared" si="6"/>
+        <v>2.5162939942407365</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="7"/>
+        <v>1.7920838365266298</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220">
         <v>0.2292063</v>
       </c>
@@ -13064,8 +15770,16 @@
       <c r="I220">
         <v>3.7899029999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <f t="shared" si="6"/>
+        <v>1.7920838365266298</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="7"/>
+        <v>1.8743656424203876</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221">
         <v>0.20161580000000001</v>
       </c>
@@ -13093,8 +15807,16 @@
       <c r="I221">
         <v>3.7907419999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <f t="shared" si="6"/>
+        <v>1.8743656424203876</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="7"/>
+        <v>1.7920838365266298</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222">
         <v>0.16158900000000001</v>
       </c>
@@ -13122,8 +15844,16 @@
       <c r="I222">
         <v>3.7907220000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <f t="shared" si="6"/>
+        <v>1.4544563940335244</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="7"/>
+        <v>1.8743656424203876</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223">
         <v>9.9654049999999994E-2</v>
       </c>
@@ -13151,8 +15881,16 @@
       <c r="I223">
         <v>3.7907190000000002</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <f t="shared" si="6"/>
+        <v>1.9141666228552965</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="7"/>
+        <v>1.6163763199135479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224">
         <v>8.6599099999999998E-2</v>
       </c>
@@ -13180,8 +15918,16 @@
       <c r="I224">
         <v>3.7915559999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <f t="shared" si="6"/>
+        <v>1.6163763199135479</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="7"/>
+        <v>1.6163763199135479</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225">
         <v>6.7291390000000006E-2</v>
       </c>
@@ -13209,8 +15955,16 @@
       <c r="I225">
         <v>3.7935819999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <f t="shared" si="6"/>
+        <v>1.2947469721083318</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="7"/>
+        <v>1.6163763199135479</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226">
         <v>6.0882319999999997E-2</v>
       </c>
@@ -13238,8 +15992,16 @@
       <c r="I226">
         <v>3.8010299999999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <f t="shared" si="6"/>
+        <v>1.7008647395626171</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="7"/>
+        <v>1.7008647395626171</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227">
         <v>4.0734729999999997E-2</v>
       </c>
@@ -13267,8 +16029,16 @@
       <c r="I227">
         <v>3.786413</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <f t="shared" si="6"/>
+        <v>1.7372692695584877</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="7"/>
+        <v>1.7372692695584877</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228">
         <v>-1.8570690000000001E-2</v>
       </c>
@@ -13296,8 +16066,16 @@
       <c r="I228">
         <v>3.7451500000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <f t="shared" si="6"/>
+        <v>1.9812382063252156</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="7"/>
+        <v>1.7372692695584877</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229">
         <v>-6.2127340000000003E-2</v>
       </c>
@@ -13325,8 +16103,16 @@
       <c r="I229">
         <v>3.732561</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <f t="shared" si="6"/>
+        <v>1.3278249103783397</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="7"/>
+        <v>1.7859725739936321</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230">
         <v>-0.1186113</v>
       </c>
@@ -13354,8 +16140,16 @@
       <c r="I230">
         <v>3.7191529999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <f t="shared" si="6"/>
+        <v>1.7859725739936321</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="7"/>
+        <v>1.3278249103783397</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231">
         <v>-0.13887679999999999</v>
       </c>
@@ -13383,8 +16177,16 @@
       <c r="I231">
         <v>3.6740870000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <f t="shared" si="6"/>
+        <v>0.64534154555940426</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="7"/>
+        <v>1.4530565818866117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232">
         <v>-0.14746480000000001</v>
       </c>
@@ -13412,8 +16214,16 @@
       <c r="I232">
         <v>3.6840830000000002</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <f t="shared" si="6"/>
+        <v>1.4530565818866117</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="7"/>
+        <v>0.85488855147849185</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233">
         <v>-0.1691029</v>
       </c>
@@ -13441,8 +16251,16 @@
       <c r="I233">
         <v>3.6814749999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <f t="shared" si="6"/>
+        <v>0.85488855147849185</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="7"/>
+        <v>0.85488855147849185</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234">
         <v>-0.14895030000000001</v>
       </c>
@@ -13470,8 +16288,16 @@
       <c r="I234">
         <v>3.682048</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <f t="shared" si="6"/>
+        <v>0.77273975446653254</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="7"/>
+        <v>0.85488855147849185</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235">
         <v>-0.12902959999999999</v>
       </c>
@@ -13499,8 +16325,16 @@
       <c r="I235">
         <v>3.704736</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <f t="shared" si="6"/>
+        <v>1.7143055098873103</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="7"/>
+        <v>1.2186102764153115</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236">
         <v>-0.13487930000000001</v>
       </c>
@@ -13528,8 +16362,16 @@
       <c r="I236">
         <v>3.6995049999999998</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <f t="shared" si="6"/>
+        <v>1.2186102764153115</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="7"/>
+        <v>1.4316188291071081</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237">
         <v>-0.13813980000000001</v>
       </c>
@@ -13557,8 +16399,16 @@
       <c r="I237">
         <v>3.7146499999999998</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <f t="shared" si="6"/>
+        <v>1.4316188291071081</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="7"/>
+        <v>1.2186102764153115</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238">
         <v>-0.1334716</v>
       </c>
@@ -13586,8 +16436,16 @@
       <c r="I238">
         <v>3.7328410000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <f t="shared" si="6"/>
+        <v>0.18945253794023964</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="7"/>
+        <v>1.4316188291071081</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239">
         <v>-8.0794579999999994E-3</v>
       </c>
@@ -13615,8 +16473,16 @@
       <c r="I239">
         <v>3.7529409999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <f t="shared" si="6"/>
+        <v>4.3970856169227934</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="7"/>
+        <v>2.2416318582341606</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240">
         <v>2.3857260000000002E-2</v>
       </c>
@@ -13644,8 +16510,16 @@
       <c r="I240">
         <v>3.7800639999999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <f t="shared" si="6"/>
+        <v>2.2416318582341606</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="7"/>
+        <v>2.2416318582341606</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241">
         <v>5.0200710000000003E-2</v>
       </c>
@@ -13673,8 +16547,16 @@
       <c r="I241">
         <v>3.778359</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <f t="shared" si="6"/>
+        <v>2.0447905763212639</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="7"/>
+        <v>2.2416318582341606</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242">
         <v>7.761672E-2</v>
       </c>
@@ -13702,8 +16584,16 @@
       <c r="I242">
         <v>3.7765070000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <f t="shared" si="6"/>
+        <v>2.9800315937902537</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="7"/>
+        <v>2.0447905763212639</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243">
         <v>0.13431969999999999</v>
       </c>
@@ -13731,8 +16621,16 @@
       <c r="I243">
         <v>3.7736040000000002</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <f t="shared" si="6"/>
+        <v>1.8643968681365453</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="7"/>
+        <v>1.8643968681365453</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244">
         <v>0.15242929999999999</v>
       </c>
@@ -13760,8 +16658,16 @@
       <c r="I244">
         <v>3.773469</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <f t="shared" si="6"/>
+        <v>0.81178457655525504</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="7"/>
+        <v>1.8643968681365453</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245">
         <v>0.2393122</v>
       </c>
@@ -13789,8 +16695,16 @@
       <c r="I245">
         <v>3.7726769999999998</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <f t="shared" si="6"/>
+        <v>3.8911641096841389</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="7"/>
+        <v>0.87884399232457389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246">
         <v>0.26131130000000002</v>
       </c>
@@ -13818,8 +16732,16 @@
       <c r="I246">
         <v>3.758947</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <f t="shared" si="6"/>
+        <v>0.87884399232457389</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="7"/>
+        <v>2.1443227768069328</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247">
         <v>0.27899940000000001</v>
       </c>
@@ -13847,8 +16769,16 @@
       <c r="I247">
         <v>3.7663359999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <f t="shared" si="6"/>
+        <v>2.1443227768069328</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="7"/>
+        <v>2.1443227768069328</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248">
         <v>0.26394610000000002</v>
       </c>
@@ -13876,8 +16806,16 @@
       <c r="I248">
         <v>3.7698010000000002</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <f t="shared" si="6"/>
+        <v>3.0973041091544493</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="7"/>
+        <v>2.1443227768069328</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249">
         <v>0.29666609999999999</v>
       </c>
@@ -13905,8 +16843,16 @@
       <c r="I249">
         <v>3.7686419999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <f t="shared" si="6"/>
+        <v>1.5255957808397409</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="7"/>
+        <v>1.9995317590688548</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250">
         <v>0.24786900000000001</v>
       </c>
@@ -13934,8 +16880,16 @@
       <c r="I250">
         <v>3.7665130000000002</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <f t="shared" si="6"/>
+        <v>1.9995317590688548</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="7"/>
+        <v>1.5255957808397409</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251">
         <v>0.24399689999999999</v>
       </c>
@@ -13963,8 +16917,16 @@
       <c r="I251">
         <v>3.7707120000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <f t="shared" si="6"/>
+        <v>0.18378165870945912</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="7"/>
+        <v>1.9995317590688548</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252">
         <v>0.3011568</v>
       </c>
@@ -13992,8 +16954,16 @@
       <c r="I252">
         <v>3.7722319999999998</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <f t="shared" si="6"/>
+        <v>3.7854147643375882</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="7"/>
+        <v>2.7392415242011774</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253">
         <v>0.23573620000000001</v>
       </c>
@@ -14021,8 +16991,16 @@
       <c r="I253">
         <v>3.770251</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <f t="shared" si="6"/>
+        <v>2.7392415242011774</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="7"/>
+        <v>2.7392415242011774</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254">
         <v>0.1841111</v>
       </c>
@@ -14050,8 +17028,16 @@
       <c r="I254">
         <v>3.7683399999999998</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <f t="shared" si="6"/>
+        <v>1.9853717264555253</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="7"/>
+        <v>1.9853717264555253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255">
         <v>0.15919749999999999</v>
       </c>
@@ -14079,8 +17065,16 @@
       <c r="I255">
         <v>3.7574770000000002</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K255">
+        <f t="shared" si="6"/>
+        <v>1.076959455937414</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="7"/>
+        <v>1.9853717264555253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256">
         <v>7.3444770000000006E-2</v>
       </c>
@@ -14108,8 +17102,16 @@
       <c r="I256">
         <v>3.7579560000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K256">
+        <f t="shared" si="6"/>
+        <v>4.3842776267549048</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="7"/>
+        <v>1.3239255229220175</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257">
         <v>7.6619789999999993E-2</v>
       </c>
@@ -14137,8 +17139,16 @@
       <c r="I257">
         <v>3.7604690000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K257">
+        <f t="shared" si="6"/>
+        <v>1.3239255229220175</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="7"/>
+        <v>1.3239255229220175</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258">
         <v>6.8356280000000005E-2</v>
       </c>
@@ -14166,8 +17176,16 @@
       <c r="I258">
         <v>3.7686679999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K258">
+        <f t="shared" si="6"/>
+        <v>0.39584112964305412</v>
+      </c>
+      <c r="L258">
+        <f t="shared" si="7"/>
+        <v>1.1371255320310212</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259">
         <v>3.4329020000000002E-2</v>
       </c>
@@ -14195,8 +17213,16 @@
       <c r="I259">
         <v>3.7660200000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K259">
+        <f t="shared" si="6"/>
+        <v>1.1371255320310212</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="7"/>
+        <v>0.40078883026153356</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260">
         <v>2.997609E-2</v>
       </c>
@@ -14224,8 +17250,16 @@
       <c r="I260">
         <v>3.768303</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K260">
+        <f t="shared" ref="K260:K301" si="8">SQRT((A260-A259)^2+(B260-B259)^2+(C260-C259)^2)*30</f>
+        <v>0.40078883026153356</v>
+      </c>
+      <c r="L260">
+        <f t="shared" ref="L260:L301" si="9">MEDIAN(K259:K261)</f>
+        <v>1.1371255320310212</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261">
         <v>-2.9081579999999999E-2</v>
       </c>
@@ -14253,8 +17287,16 @@
       <c r="I261">
         <v>3.7309549999999998</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K261">
+        <f t="shared" si="8"/>
+        <v>1.9882320772761932</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="9"/>
+        <v>0.63391748119688407</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262">
         <v>-4.1373750000000001E-2</v>
       </c>
@@ -14282,8 +17324,16 @@
       <c r="I262">
         <v>3.7194389999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K262">
+        <f t="shared" si="8"/>
+        <v>0.63391748119688407</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="9"/>
+        <v>1.9882320772761932</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263">
         <v>-0.1189944</v>
       </c>
@@ -14311,8 +17361,16 @@
       <c r="I263">
         <v>3.7059790000000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K263">
+        <f t="shared" si="8"/>
+        <v>2.5166935433638447</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="9"/>
+        <v>1.2098918520863755</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264">
         <v>-0.14953330000000001</v>
       </c>
@@ -14340,8 +17398,16 @@
       <c r="I264">
         <v>3.6990430000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K264">
+        <f t="shared" si="8"/>
+        <v>1.2098918520863755</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="9"/>
+        <v>1.2098918520863755</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265">
         <v>-0.1637528</v>
       </c>
@@ -14369,8 +17435,16 @@
       <c r="I265">
         <v>3.6856589999999998</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K265">
+        <f t="shared" si="8"/>
+        <v>0.66674080332690122</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="9"/>
+        <v>1.2098918520863755</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266">
         <v>-0.12128949999999999</v>
       </c>
@@ -14398,8 +17472,16 @@
       <c r="I266">
         <v>3.6902029999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K266">
+        <f t="shared" si="8"/>
+        <v>1.9235808556120004</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="9"/>
+        <v>0.66674080332690122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267">
         <v>-0.1170286</v>
       </c>
@@ -14427,8 +17509,16 @@
       <c r="I267">
         <v>3.6947040000000002</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K267">
+        <f t="shared" si="8"/>
+        <v>0.13750837994100679</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="9"/>
+        <v>1.1146189891134324</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268">
         <v>-8.7900850000000003E-2</v>
       </c>
@@ -14456,8 +17546,16 @@
       <c r="I268">
         <v>3.706493</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K268">
+        <f t="shared" si="8"/>
+        <v>1.1146189891134324</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="9"/>
+        <v>1.1146189891134324</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269">
         <v>-0.156774</v>
       </c>
@@ -14485,8 +17583,16 @@
       <c r="I269">
         <v>3.7335929999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K269">
+        <f t="shared" si="8"/>
+        <v>2.2613386755871487</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="9"/>
+        <v>2.2613386755871487</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270">
         <v>-4.6204740000000001E-2</v>
       </c>
@@ -14514,8 +17620,16 @@
       <c r="I270">
         <v>3.7783470000000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K270">
+        <f t="shared" si="8"/>
+        <v>3.7154649563887476</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="9"/>
+        <v>2.2613386755871487</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271">
         <v>4.6568160000000003E-3</v>
       </c>
@@ -14543,8 +17657,16 @@
       <c r="I271">
         <v>3.7779129999999999</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K271">
+        <f t="shared" si="8"/>
+        <v>1.7391249378842866</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="9"/>
+        <v>1.7391249378842866</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272">
         <v>1.0971649999999999E-2</v>
       </c>
@@ -14572,8 +17694,16 @@
       <c r="I272">
         <v>3.7846950000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K272">
+        <f t="shared" si="8"/>
+        <v>0.19792858497902852</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="9"/>
+        <v>1.7391249378842866</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273">
         <v>5.916892E-2</v>
       </c>
@@ -14601,8 +17731,16 @@
       <c r="I273">
         <v>3.7861470000000002</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K273">
+        <f t="shared" si="8"/>
+        <v>1.9204649626152006</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="9"/>
+        <v>1.4333287127492271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274">
         <v>0.1067394</v>
       </c>
@@ -14630,8 +17768,16 @@
       <c r="I274">
         <v>3.771919</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K274">
+        <f t="shared" si="8"/>
+        <v>1.4333287127492271</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="9"/>
+        <v>1.4333287127492271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275">
         <v>0.121554</v>
       </c>
@@ -14659,8 +17805,16 @@
       <c r="I275">
         <v>3.7704789999999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K275">
+        <f t="shared" si="8"/>
+        <v>0.50356092713791989</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="9"/>
+        <v>0.60040358139338257</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276">
         <v>0.1411975</v>
       </c>
@@ -14688,8 +17842,16 @@
       <c r="I276">
         <v>3.758273</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K276">
+        <f t="shared" si="8"/>
+        <v>0.60040358139338257</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="9"/>
+        <v>0.60040358139338257</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277">
         <v>0.2319474</v>
       </c>
@@ -14717,8 +17879,16 @@
       <c r="I277">
         <v>3.7613020000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K277">
+        <f t="shared" si="8"/>
+        <v>3.7523016730761443</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="9"/>
+        <v>1.3310617734369048</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278">
         <v>0.2441161</v>
       </c>
@@ -14746,8 +17916,16 @@
       <c r="I278">
         <v>3.7710140000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K278">
+        <f t="shared" si="8"/>
+        <v>1.3310617734369048</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="9"/>
+        <v>1.6268656049351466</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279">
         <v>0.2415166</v>
       </c>
@@ -14775,8 +17953,16 @@
       <c r="I279">
         <v>3.7678929999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K279">
+        <f t="shared" si="8"/>
+        <v>1.6268656049351466</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="9"/>
+        <v>1.3310617734369048</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280">
         <v>0.24346180000000001</v>
       </c>
@@ -14804,8 +17990,16 @@
       <c r="I280">
         <v>3.7634340000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K280">
+        <f t="shared" si="8"/>
+        <v>8.4005316956726042E-2</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="9"/>
+        <v>0.14213878508345298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281">
         <v>0.2473851</v>
       </c>
@@ -14833,8 +18027,16 @@
       <c r="I281">
         <v>3.762502</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K281">
+        <f t="shared" si="8"/>
+        <v>0.14213878508345298</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="9"/>
+        <v>0.10800200902297936</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282">
         <v>0.25066670000000002</v>
       </c>
@@ -14862,8 +18064,16 @@
       <c r="I282">
         <v>3.7622979999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K282">
+        <f t="shared" si="8"/>
+        <v>0.10800200902297936</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="9"/>
+        <v>0.14213878508345298</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283">
         <v>0.25138389999999999</v>
       </c>
@@ -14891,8 +18101,16 @@
       <c r="I283">
         <v>3.7600699999999998</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K283">
+        <f t="shared" si="8"/>
+        <v>0.15028518741379862</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="9"/>
+        <v>0.15028518741379862</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284">
         <v>0.25038919999999998</v>
       </c>
@@ -14920,8 +18138,16 @@
       <c r="I284">
         <v>3.76288</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K284">
+        <f t="shared" si="8"/>
+        <v>0.24734350685231377</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="9"/>
+        <v>0.24734350685231377</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285">
         <v>0.23390230000000001</v>
       </c>
@@ -14949,8 +18175,16 @@
       <c r="I285">
         <v>3.7612830000000002</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K285">
+        <f t="shared" si="8"/>
+        <v>0.58776694251208195</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="9"/>
+        <v>0.58776694251208195</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286">
         <v>0.22781080000000001</v>
       </c>
@@ -14978,8 +18212,16 @@
       <c r="I286">
         <v>3.775334</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K286">
+        <f t="shared" si="8"/>
+        <v>1.0178858446451649</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="9"/>
+        <v>1.0178858446451649</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287">
         <v>0.1743161</v>
       </c>
@@ -15007,8 +18249,16 @@
       <c r="I287">
         <v>3.7733699999999999</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K287">
+        <f t="shared" si="8"/>
+        <v>3.666939037968997</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="9"/>
+        <v>3.666939037968997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288">
         <v>-8.6597759999999992E-3</v>
       </c>
@@ -15036,8 +18286,16 @@
       <c r="I288">
         <v>3.772783</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K288">
+        <f t="shared" si="8"/>
+        <v>7.2771911467815409</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="9"/>
+        <v>3.666939037968997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289">
         <v>9.5064499999999996E-2</v>
       </c>
@@ -15065,8 +18323,16 @@
       <c r="I289">
         <v>3.7730950000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K289">
+        <f t="shared" si="8"/>
+        <v>3.5412047668572826</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="9"/>
+        <v>3.5412047668572826</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290">
         <v>7.3456030000000005E-2</v>
       </c>
@@ -15094,8 +18360,16 @@
       <c r="I290">
         <v>3.7732399999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K290">
+        <f t="shared" si="8"/>
+        <v>1.4224761040758438</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="9"/>
+        <v>3.5412047668572826</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291">
         <v>6.7739350000000004E-2</v>
       </c>
@@ -15123,8 +18397,16 @@
       <c r="I291">
         <v>3.7768920000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K291">
+        <f t="shared" si="8"/>
+        <v>4.0038461474343849</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="9"/>
+        <v>1.4224761040758438</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292">
         <v>6.5537200000000004E-2</v>
       </c>
@@ -15152,8 +18434,16 @@
       <c r="I292">
         <v>3.7741120000000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K292">
+        <f t="shared" si="8"/>
+        <v>8.1648646505930289E-2</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="9"/>
+        <v>0.90520066978485714</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293">
         <v>4.122758E-2</v>
       </c>
@@ -15181,8 +18471,16 @@
       <c r="I293">
         <v>3.7517930000000002</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K293">
+        <f t="shared" si="8"/>
+        <v>0.90520066978485714</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="9"/>
+        <v>0.90520066978485714</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294">
         <v>-2.3840030000000002E-2</v>
       </c>
@@ -15210,8 +18508,16 @@
       <c r="I294">
         <v>3.7312729999999998</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K294">
+        <f t="shared" si="8"/>
+        <v>3.6940410536622243</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="9"/>
+        <v>0.90520066978485714</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295">
         <v>-3.8144039999999997E-2</v>
       </c>
@@ -15239,8 +18545,16 @@
       <c r="I295">
         <v>3.729508</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K295">
+        <f t="shared" si="8"/>
+        <v>0.56525706425315392</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="9"/>
+        <v>2.2415296635310544</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296">
         <v>-0.1125099</v>
       </c>
@@ -15268,8 +18582,16 @@
       <c r="I296">
         <v>3.7152889999999998</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K296">
+        <f t="shared" si="8"/>
+        <v>2.2415296635310544</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="9"/>
+        <v>0.56525706425315392</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297">
         <v>-0.11165070000000001</v>
       </c>
@@ -15297,8 +18619,16 @@
       <c r="I297">
         <v>3.6861079999999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K297">
+        <f t="shared" si="8"/>
+        <v>5.4256330367979305E-2</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="9"/>
+        <v>1.0291731199414391</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298">
         <v>-0.1397746</v>
       </c>
@@ -15326,8 +18656,16 @@
       <c r="I298">
         <v>3.6786370000000002</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K298">
+        <f t="shared" si="8"/>
+        <v>1.0291731199414391</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="9"/>
+        <v>0.12293942891521856</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299">
         <v>-0.14249890000000001</v>
       </c>
@@ -15355,8 +18693,16 @@
       <c r="I299">
         <v>3.6758600000000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K299">
+        <f t="shared" si="8"/>
+        <v>0.12293942891521856</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="9"/>
+        <v>0.12293942891521856</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300">
         <v>-0.14426430000000001</v>
       </c>
@@ -15384,8 +18730,16 @@
       <c r="I300">
         <v>3.675411</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K300">
+        <f t="shared" si="8"/>
+        <v>6.8644865387002929E-2</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="9"/>
+        <v>9.6771837768022687E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301">
         <v>-0.1421192</v>
       </c>
@@ -15412,6 +18766,14 @@
       </c>
       <c r="I301">
         <v>3.6782689999999998</v>
+      </c>
+      <c r="K301">
+        <f t="shared" si="8"/>
+        <v>9.6771837768022687E-2</v>
+      </c>
+      <c r="L301">
+        <f t="shared" si="9"/>
+        <v>8.2708351577512801E-2</v>
       </c>
     </row>
   </sheetData>
